--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1821,17 +1821,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.71875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.5703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="248.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1840,27 +1840,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="165.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.5625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="149.6875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.63671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="49.63671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="191.0625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1821,17 +1821,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.5625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.3359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="248.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="235.96484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1840,27 +1840,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="149.6875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.33203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="141.75390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.63671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="191.0625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.5546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="190.4140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -966,7 +966,7 @@
     <t>Condition.code.coding.system</t>
   </si>
   <si>
-    <t>http://snomed.info/sct/901000000000207008/version/20240901</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Condition.code.coding:ExerciseHistory.version</t>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1096,7 +1096,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="477">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -939,28 +939,30 @@
     <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/condition-code-sct-tw</t>
   </si>
   <si>
-    <t>Condition.code.coding:ExerciseHistory</t>
-  </si>
-  <si>
-    <t>ExerciseHistory</t>
-  </si>
-  <si>
-    <t>http://ltc-ig.fhir.tw/ValueSet/TempCodeVS-Sport</t>
-  </si>
-  <si>
-    <t>Condition.code.coding:ExerciseHistory.id</t>
+    <t>Condition.code.coding:snomed</t>
+  </si>
+  <si>
+    <t>snomed</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://snomed.info/sct"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Condition.code.coding:snomed.id</t>
   </si>
   <si>
     <t>Condition.code.coding.id</t>
   </si>
   <si>
-    <t>Condition.code.coding:ExerciseHistory.extension</t>
+    <t>Condition.code.coding:snomed.extension</t>
   </si>
   <si>
     <t>Condition.code.coding.extension</t>
   </si>
   <si>
-    <t>Condition.code.coding:ExerciseHistory.system</t>
+    <t>Condition.code.coding:snomed.system</t>
   </si>
   <si>
     <t>Condition.code.coding.system</t>
@@ -969,25 +971,25 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>Condition.code.coding:ExerciseHistory.version</t>
+    <t>Condition.code.coding:snomed.version</t>
   </si>
   <si>
     <t>Condition.code.coding.version</t>
   </si>
   <si>
-    <t>Condition.code.coding:ExerciseHistory.code</t>
+    <t>Condition.code.coding:snomed.code</t>
   </si>
   <si>
     <t>Condition.code.coding.code</t>
   </si>
   <si>
-    <t>Condition.code.coding:ExerciseHistory.display</t>
+    <t>Condition.code.coding:snomed.display</t>
   </si>
   <si>
     <t>Condition.code.coding.display</t>
   </si>
   <si>
-    <t>Condition.code.coding:ExerciseHistory.userSelected</t>
+    <t>Condition.code.coding:snomed.userSelected</t>
   </si>
   <si>
     <t>Condition.code.coding.userSelected</t>
@@ -1821,7 +1823,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.92578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.99609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.3359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -6155,7 +6157,7 @@
         <v>20</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>20</v>
@@ -6170,11 +6172,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6703,7 +6707,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
+++ b/docs/StructureDefinition-PASportConditionExerciseHistory.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
